--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,29 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
   <si>
     <t>Are you good at complaining?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it's nearly 4 thousands years old,what was the complaint about? 
-A: the incorrect number of goats that were delivered after being bought after market.
-B: the quality of copper of bars that were supplied or 
-C: the none-paymenet of a bill for the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>banquet</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,12 +95,700 @@
     <t>Well, some sectors by their nature are more complicated and more likely to cause problems for customers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Public service, for example, often don't have enough. Telecommunication systems, such your internet connection, are very complicate, and sometimes go wrong. Bad weather can affect transport, and so on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So an inherented problem is a problem that is part of the nature of the thing itself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So those sectors are not performing well, we usually think of the word perform when we are talking about actors or musicians, but in the business sense to perform well or badly means to be successful or not. And according to Giles Hawke, tarvel and retail are performing well in terms of customer service.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giles Hawke, goes on to talk about how people are actually making complaints, but are modern methods  taking over from the traditional letter or phone call.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We still see over 58% of complaints are made by phone or by letter so, you know, the more traditional methods of making a complain are still dominant, but we are social media rise, although it's still a very small part of how people complain and it tends to be used as an escalation point if people aren't geting what they want dealt with  in the first instance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So are people using modern methods more than tradional ones?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually, no. He says the phoing or writing a letter are still dominant. This means they are still the main, most used methods for making a complaint.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Where people are turning to social media is if their complaint is not dealt well. To deal with something means to sort it, to fix it. And if you complain and it's not dealt well, then he says people turn to social media as a form of escalation. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when you Escalate a complaints you take it to a higher level, putting your complaints on social media means that a lot more people are going to see it and it might encourage a company to deal with the complanint.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right, well,before we receive any complaints, let's review today's vocabulary after the answer to the question which was 4000-year-old. Was the complaint about:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a an incorrect number of goats that were delivered after being bought at market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b the quality of copper bars that were suply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c the none-payment of a bill for a banquet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robe what did you say?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went for a I went for the goats.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, it was actually a complaint about the quality of copper ingots or bars that were suplied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you knew that, very well done, if you guess right also very well done. No shame to get that one wrong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No complaints from me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We have sectors which are particular areas of business in the economy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something that is inherent is a natural part of something. it is ususally used to describe a problem or risk that is an unavoidable part of something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How successful a company is can be described as how well is performing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And if something is dominant, it means it's strongest or most used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And if a company doesn't deal with or try to fix the problem. the customers might take the complaint to the next level on social media which would means escalation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it's nearly 4 thousands years old,what was the complaint about? 
+A: the incorrect number of goats that were delivered after being bought after market.
+B: the quality of copper of bars that were supplied or 
+C: the none-paymenet of a bill for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>banquet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you at risk from online fraud?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are many ways to do this, and mucht of it is happening online these days. We'll talk more about this in the moment, but first a very honest quiz question for you to answer, Rob. According to UK finance, an organization that represents the British's banking industry - How much money did criminals steal through fraud and scams last year.
+a 1.2 million pounds
+b 120 million pounds
+c 1.2 billion pounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So I imagine it's quite a lot , so I'll say a hundred and twenty million pounds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now, I just mentioned the word Scam which is an illeagle way of making money by tricking someone. We may think that we'll never be scammed, but already millions of people have fallen for fake emails, phone calls or letters that look genuine and ask us to give or update our financial details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be fall for means to believe something that is a trick or a lie to be true. This year, for example, thousands of people in the UK fall for fraudulent or fake email requesting the people update the direct debt details for paying the TV llicene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's the payment we have to make in the UK to fund tje BBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is something the BBC raido 4 programme, You and Yours has been discussing. It's BBC fraud restigater reporter xxx.explained why it's easy to be deceived.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's slight of hand fraud, the criminals get you to look overt there whilst they rifle your pocked and I have the email here and it looks completely convincine all the right logo all the right fonts. It just says migh the direct debt TV license failed and I need to pay it. It's very polite. So some great language there, she says that this scam was a slight of hand faud. Slight of hand means the use of a clever skill to gain something dishornestly- in this case money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And xx says, the criminal get you to look over there whilist they rifle your pocket. Rifle means to search something in order to steal from it. so to steal from your pockets.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now like in thes case, fraudsters the people who commit fraud, Gain finnacial information by phishing. That's not phishing using  a rod, line and hook,by sending a email that looked like that came from your bank, asking the confidential information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But banks do warn us not to give away financial details online and to change our passwords regularly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But sometimes criminals are very clever in what they do, and it's easy to be fraud.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The you and your programme also heard about this from social engineer, what does she call this type of fraud.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more sophisticated frauds are ones that have been thought through very carefully. And this has been thought through. It's a fraud that can be layerd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> So you know we're getting so many information from you what you really look for it's a window into someone-a key that unlocks small part of their identity or personal data and from that a good for fraud will build and build and build ont it until the consequence to some people can completely devastating.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX is talking about sophicated fraud, that means it's clever and often complicated so it can confuse us.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yse, criminals need just a small piece of informations about us - a key that can eventually open up our identity and expose our personal data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And as XX says, for victims of fraud the consequences the outcome can very bad, especiall if somebody loses all their hard-earned savings can be devasting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course banks and security companies are working hard to beat the criminals, but it still remains a problems. And early I asked you, Rob, According to UK finance, how much money did crimal steal through fraud and scams last year. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And I said B a handred and twenty million pound, that's a lot of money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes it's. but it event more. In 2018 criminals successfully stole 1.2 billions through fraud and scams and that's just in the UK, globally it's event more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, it certainly is a serious issure, but we hopefully we haven't deceived you with the vocabulary we've discussed today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopefully not, we have been talking about fraud, that's the criminal activity of getting money by deceiving people or tricking people by doing something dishonest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next, we had scam which is an illeagle or dishonest way of making money by tricking someone the people who do it, are scammers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We talked about the phrase of verb, fall for, when you fall for something you believe something that is a trick or a lie to be true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we heard about sleight of hand, which means use of clever skill to gain something dishonestly. And rifle which means search something in order to steal from it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phishing spelt with a ph, means tricking someone by email or online to get their personal data by pretending to be from your bank.
+Finally, we discussed sophicated fraud, when something is sophicated, it is clever and often complicated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's hop so but now we reached the end of our programme , see you again soon Bye.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Shame Always Bad?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this programme, we will be talking about the emotion of shame. What can you tell us about this word, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well it can be a verb or a none, as a none, it is a motion for the uncomfortable feeling we have when we feel embarrassed or guilty about something that we've done. It's a very strong feeling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We'll explore this topic in more detail shortly. But first a question, now it might seem like a random question. But all will become clear later, I promise.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chemical which was use to make cooking pans none-stick was discovered which is by accident, when was this? was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a the 1930s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b the 1960s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c the 1980s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, I have no idea about what none-stick cookware how's to do with our topic of shame, but as the question itself. I think it has something to do with NASA or sapce programme, so I am going to say 1960s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, we will find out later in the programme if you are right. The idea of shame is not new. By any means, but the social media has made it a very modern concept, hasn't it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it's used as a verb, to shame someone, it means to say or write things in public designed to make other people feel bad about their behaviour and this is something we see a lot in social media.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This topic was discussed on a recent edition of the BBC radio programme woman's hour. One of a guest was XX from City University Lodon. Does she think that shame is always a bad thing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you have too much shame it's crippling, it sort of debilitating and that's bad, but the right amount of shame can be really positive because it effects change. And I wonder if we're starting to see that a bit in modern culture as well from sort of social media platform sort of someone's done something that we consider to be a little bit wrong we can sort of publicly shame them. And maybe effect some positive change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So is shame always bad?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, she does say that too much shame could be crippling and debilitating, both these words mean that shame is so strong that we really can't  manage the emotion we can't deal with it , we can't do anything to push it right. Bu she does say a bit of shame can be positive because it effects{} change. This means it causes change. If someone is shamed ne on social media, it is very public and can mean that theychange their behaviour.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suppose though there is one group I think have to accept public shaming,and perhaps deserve it more than others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media is one area where the public can directly contact and comment on what their representatives are or aren’t doing. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think I can guess would it be politions perhaps? These days we are very cynical about politicaians aren't we? Social media is one area where the public can directly contact and comment on what their representatives are or aren't doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But politicians are a particular kind of person, aren't they? Cultural historian XX made this comment on the same woman's hour programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shame it can be very very useful. and the idea of someone who doesn't experence that at all, like a sort of xx politician, I mean that kind of frightening image.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's she saying here, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She's talking about how some politicians do not seem to be bothered by shaming. They just ignore it and move on. She describes them as Taflon coated. This is -aha- a reference to non-stick coodware. Taflon is a brand name of the chemical which was used to make pots and pan none-stick. The pans were coated or covered in this material. The reference to politicians is that there are some to whom criticism or shame just don't stick. They manage to avoid any negative consequence of actions and this she says is scary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here is Teflon Watt-Smith again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's nearly time now to review our vocabulary, but first let's have the answer to this quiz question which was about none-stick coating on cookware, or Teflon, as we heard. When was it invented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a the 1930s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b the 1960s or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I guessed 1960s and I think it was invented as part of the US space programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, a lot people think that and like you, a lot people are wrong. It was actually discovered by accident in 1930s, so well done if you got that right, but no shame if you didn't. now on with today's words.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We were talking about shame, an uncomfortable feeling of guilt and embarrassment at something you've done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shame can be crippling and debilitating, both these adjectives mean making someone unable to deal with the sitiuation, they can feel so badly about what they've done that find it difficult to move forward emotionally </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We then had to effect change. This means to make change happen. Note this is effect with an "e" and not affect with an "a".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceflon is non-stick covering for cookware.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And something that is coasted with something is covered with something, so Ceflon coated means covered in Teflon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you care if you're poor when you're old?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this programme we are talking about finance and in particular planing for our future lifestyles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can barely afford my current lifestyle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same here. but perhaps we will pick up some good tips today. Before that though, a question. Being a millionaire may be an impossible dream for most of us, but when was the word first used in English. Was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1600s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 1700s, or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 1800s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am going to guess, theat's the 1600s as there have always been very wealthy people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will reveal the answer later, now the bbc money box programme covers all sorts of finance features. Recently, they were  talking about lifestyle financial planing which is planing your finances to meet the kind of lifestyle you want to have.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julie Lord leads a financial organization and she talks about the process of lifestyle financial planing. How many numbers does she say you need to start with?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We would start by saying that we need to put together a lifetime cashflow forecast or a model. We just need four numbers, your income, your expenditure, your assets, liabilities. and then we can project forward to show you what sort of lifestyle you will have. If you do nothing at all, and if indeed you do some of the things that perhaps an ISA or a pension or any other kind of financial product, might help you with.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So how many numbers do you need?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She says that you start with just four numbers,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right. The first of these numbers is your income. This is the money that you have coming in, your salary for example.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then there is the number for your expenditure, this is the money you have going out. For rent, food, entertainment, transport and so on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The next numer was for assets, this is the cash value of things you own, for example property, cars, jewellery as well as savings and investment that kind of thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally there is liabilities, these is the money you owe, for example on credit cards or loans.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So if you know these details , she says they can come up with a lifetime cashflow forecast, which is a calculatation of how much money you can expect to have in the future if that is enough to meet your expectations. Do you have those details, dp you know your numbers, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have very detailed spreadsheet where I do list my income and expenditure ,so I do know for month to month how much I need and how much I can spend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That sounds very organize. What does it tell you about your future?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well it just reminds me how much money I don't have, it's quite deressing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I live in blissful ignorance , so I have no ideal how big my debts are. I try not to worry about it. I kind of think I am much too young to worry it now. And that as if by magic it will all work out in the end. So it would be difficult for me to come up with thoes four numbers. Anyway, let's listen to Julie Lorad again, describing the lifestyle financial planning process.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We would start by saying that we need to put together a lifetime casflow forecast or a model. You just need four number, your income, your expenditure, assets, liabilities. Then we can project forward to show you what sort of lifestyle you will have. If you do nothing at all, and if you indeed you do some of those things that perhaps ISA or a  pension or any other kind of  financial product might help you with.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is lifestyle financial planning only for old people with a good pnsion?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not according to julie Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, it't not about old age,is it? I mean there are people we have quite a number of younger clients to come to us and say we just want to get financially organized. we've heard about all this stuff this financial products no idea really what they are, or more importantly what they going to do for us. so can you give us a hand to help us look forward to see what will happen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So she also has younger clients who ask for her company's help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, she uses the phrase give us a hand which means to help someone, if you give someone a hand, you help them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly, in the way that I give you a hand with six minutes english.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I think I give you a hand, rather than the other way around, Nail.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Really, well, let's not fall out about it. Let's listen to Julie Lord again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, it not all about old age, is it? I mean there are people we have quite a number clients who come to us and says just want to get finiancially organized we've heard about all this stuff these financial products. No idea really what they are or more importantly what they are going to do for us. So can you give a hand to look to help us look forward to see what will happen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's nearly time now to review our vocabulary but first, let's have the answer to our quiz question. When was the word millionaire first used in English. Ws it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a the 1600s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b the 1700s, or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c the 1800s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What I guessed and said it was 1600s.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well not a good guess this time I am afraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's actually a lot later, it was the 1800s when it was first used in English, though it had appeared in French in the 1700s. Now on with the vocabulary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We had a lot of financial terms in this programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We had cashflow forecast, this is a calculation of how much money you can expect to have at the particular time in the future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And the cashflow forecast is based on knowing your income which is the money you have coming in, and your expenditure the money you have going out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You also need to know your assets, which is the value of thing you own as well as saving and investments this is balance against your liability which is the term for the money that you owe, for example on credit cards.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally we had the expression to give someone a hand meaning to help someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you tell when someone is lying?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this programme, we'll talk about biscuit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Really? that not what I was talk, oh , hold on, you are liying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, Sam, I am lying symply to demonstrate our topic lying and how to detect it. You detect my lie very easily, Sam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I could tell by the smirk on your face that you ware telling a fib, that's the word for a small inoffensive lie.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be honestly, talking about lie detecting will be much more interesting than biscuit.well, but first, let's start to the first question for you to answer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A competition is held in Combria in the UK every year to find and award the title of the biggest liar in the world, but which type of people are not allowed to take part.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a farmers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b lawyers or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c estate agencts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I would be lying, if I said I knew, but based on personal experience, I'd say estate, they'd find it too easy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha, well, that's your opinion but I will let you know if you are right at the end of the programme. So lying is something I am sure a lot of us do, sometimes is to avoid trouble, sometimes to cheat people or sometimes just to impress someone. Did you know I can speak seven Languages, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's just the barefaced lie, Rob. But I can see how easy lying can be. And that's what neuroscientist Sophie Scott thinks. Here she is on BBC radio 4's seriously podcast explaining how we sometimes lie just to be nice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>often what we mean by lying is someone setting out to deceive us with their words or their actions but actually normal conversation probably can only happen becausewe don't actually say all the time exactly what we really think and what we really mean. And that kind of coorperation is at the heart I think of a lot of social interactions for human and I think that's one of strong pushes to make conversation polite and therefore frequently not actually truthful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So Sophie mentions two types of lying, there is one when we try to deceive someone so that's trying to hide something by tricking someone to gain an advantage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hmm, that's like you getting me to pay 10 pounds for a cinema ticket when actually they were only 5 pounds. That's just dishonest, but there are also what we like to call white lies, small lies, we tell to avoid upsetting someone, thoes  are lies that aren't intentended to give you an advantage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes Sophie Scott  says we use them in normal conversation when we don't say what we really mean.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So we want to make conversation polite because we want to cooperate with each other. She says cooperation is at the heart, something that is at the heart is  the most important or essential part.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now, telling lies is one thing, but how do you know if we are being lied to? Sometime there are telltale signs such as someone's face turning red or someone shuffing their feet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But if you really want to know if someone is lying. Maybe we should listen to Richard Wiseman, a physchologist at the university of Hertfordshire, here he is speaking on a seriously podcast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lier, in general, say less. They tend to have a longer what's called response latency, which is the time between the end of the question and the beginning of the answer.And there also tend to be an emotional distance in the lie. So the words , me, my, I, all those things tend to drop away in lies and it's much much harder for liar to control what they saying it,and how they saying it.So focus your attention there, you become a lie detector.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some good advice from Richard Wiseman. So to detect lies you need to listen out for the response latency. A term use in psychology to describe time taken between a stimulus or question and a response to it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bigger the gap the more chance there is that someone is lying, is that good summary Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort of, Rob. Richard also suggest we focus on or concentrate on what and how people are saying things too. That's probably more to it than just that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well now you know how to detect my lies Sam, Maybe honestly is the best policy as they say. So I am now going to give you an honest answer to the question I asked earlier. A competition is held in the UK every year, to award the title of the biggest liar in the world. But which type of people are not allowed to take part?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I gussed c estate agents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And you are wrong I am afraid.Laywer as well as politicians are not allowed to enter the competition. It's claimed the are judged to be too skill at telling porkies", porkies is an informal word for pork pies, and that rthymes with lies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fascinating stuff, Rob, and that's no lie. But now shell we recap some of vocabulary we've heard today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A fib is a small inoffensive lie.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A white lie is also a small lie told to avoid upsetting someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you deceive someone , you try to hide something by tricking them to gain an advantage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When something is at the heart of something, it's the most important or essential part of it. And we've heard about response latency- a term used in psychology to describe the time taken between a simulus or a question and a response to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +820,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,12 +849,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A2:A185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -493,42 +1172,892 @@
     </row>
     <row r="3" spans="1:1" ht="66">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="66">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="49.5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="33">
+      <c r="A11" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="33">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="33">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="49.5">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="33">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="33">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="33">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="33">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="99">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="33">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="33">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="33">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="66">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="33">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="33">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="49.5">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="33">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="33">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="33">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="33">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="33">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33">
+      <c r="A68" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="33">
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="33">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="33">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="33">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="49.5">
+      <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="49.5">
+      <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="33">
+      <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="33">
+      <c r="A86" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="66">
+      <c r="A88" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="33">
+      <c r="A90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="33">
+      <c r="A96" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="33">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="33">
+      <c r="A106" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="33">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="33">
+      <c r="A113" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="49.5">
+      <c r="A114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="33">
+      <c r="A119" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="33">
+      <c r="A121" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="33">
+      <c r="A122" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="49.5">
+      <c r="A125" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="49.5">
+      <c r="A126" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="49.5">
+      <c r="A129" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="49.5">
+      <c r="A135" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="33">
+      <c r="A136" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="33">
+      <c r="A146" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="33">
+      <c r="A147" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="33">
+      <c r="A156" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="33">
+      <c r="A162" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="33">
+      <c r="A163" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="66">
+      <c r="A164" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="33">
+      <c r="A165" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="33">
+      <c r="A166" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="33">
+      <c r="A168" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="33">
+      <c r="A169" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="33">
+      <c r="A170" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="49.5">
+      <c r="A171" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="33">
+      <c r="A172" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="49.5">
+      <c r="A175" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="33">
+      <c r="A180" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="33">
+      <c r="A185" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="198">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +781,98 @@
   </si>
   <si>
     <t>When something is at the heart of something, it's the most important or essential part of it. And we've heard about response latency- a term used in psychology to describe the time taken between a simulus or a question and a response to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working for free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before you got your first job, Rob. Did you do any work experience?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think I may done a day or two at some companies, just shadowing. Whatching how they did thing, but nothing more than that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some companies offer student or rescent graduated what they call internship. These are extend periods of work experience where someone can be working fulltime without an actual cotrast and in many cases without even been pay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh yes, this is a bit of problem, Isn't it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some companies are being accused of using student and graduates as free or cheap labor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, although the counter argument is that internship are valuable experience for people who need it before they can get a real job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, we will look at this topic a little more after this week's quiz qustion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the topic of business and company  which is the oldest stock exstrange in the world? is it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a Bombay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c New York</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c Amsterdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ah, tricky, because I was expecting London on that list. I am going to take a guess then at Amsterdam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, well I will reveal the answer later in the programme. James Turner is the chief executive of an education charity. Recently, he took part in discussing on the BBC radio progamme you and yours on the topic of the internships. What does he think is a big issue with unpay internships.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In many careers, we're now  seeing that it's almost as an expectation that a young person does an internship berfore they stand the chance of gtting that full time job in that profession. And the issue with that from a sort of social mobility point of view is that a substantial proportion of those of those internships are unpaid and that effectively rules out those who can afford to work for free.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what is the problem with unpaid internships, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, if you can't afford to work for free, it makes it very difficult to do an internship. Particularly, in expensive city like London. This excludes or rules out a lot of people from the benefits of an internship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is bad for social mobility which is the ability of people to move to higher, better paid levels in socility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the poorer you are, the more difficult it can be to get a good job. Even you have the ability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could you afford work for free here in London, Sam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO, I can barely afford to live in London as a it is.So the idea of doing an unpaid internship would not appeal to me at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turner goes on to talk about other issue that also problematic in internship programmes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A185"/>
+  <dimension ref="A2:A209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2058,6 +2150,121 @@
     <row r="185" spans="1:1" ht="33">
       <c r="A185" s="1" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="33">
+      <c r="A190" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="33">
+      <c r="A201" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="49.5">
+      <c r="A202" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="33">
+      <c r="A204" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="224">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -873,6 +873,110 @@
   </si>
   <si>
     <t>Turner goes on to talk about other issue that also problematic in internship programmes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To often internships are open to those with established connections in the profession. And again, that ruled out those young who don't have the wel- connected families or friends who can open those doors for them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what are these other issues?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In many cases he says that internship opportunities are only avalable to those with established connection to the company or industry. This means they have pre-existing link with the company for example through family or friend's families.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes it's a lot easier if your family is well-connected, if you has a lot of contacts and links to a particular company or important people in that company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">These links make easier to open doors to the opportunity to open doors is an expression that means to access to. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it seems that to be able to do unpaid internship,s you need to have a fair bit of money. And to get an internship in the first place , you may need to have a previous link to the company through a family connection, for example.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the system, would seem to be difficult for poorer families and make it more difficult for students without thoes resources or  connections to get on the job ladder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here's James Turner again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To often internships are open to thoes with established connection in the professions. And again that ruled out thoes young people who don't have well-connected families or friends who can open those door for them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right time now to answer this week's question. Which is the oldest stock exchange in the world. Is it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c Amsterdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b New York</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rob, what did you say?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went for Amsterdam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh well done, that is correct. Congratulation everyone who go that right, and extra bonus point if you know the date, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haven't a clue 1750.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actually it a lot earlier 1602.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wow, that's much earlier than I though.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's have a look again at today's vocabulary. We've been talking about internships which are periods of work at companies as a way for students or  new graduates to get experience in a particular field.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If they are unpaid, it can make social mobility very difficult. This is a movement from the lower social level to a higher one and it's difficult as poorer candidates can't to afford to work for free.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, the cost rule them out. it excludes them from the opportunity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What helps is if you have established connections with the company. This refers to previouse or pre-existing links for the company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And also your families is well-connected if it has a good connection, for example, if your father plays golf with the CEO, it can open door or in other words it can make it easier to get into the company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So sam are you well-connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, only to my smartphone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same here</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A209"/>
+  <dimension ref="A2:A236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2265,6 +2369,141 @@
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="33">
+      <c r="A210" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="33">
+      <c r="A212" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="33">
+      <c r="A215" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="33">
+      <c r="A216" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="33">
+      <c r="A218" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="33">
+      <c r="A229" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="33">
+      <c r="A230" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="33">
+      <c r="A233" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,6 +977,82 @@
   </si>
   <si>
     <t>Same here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Women’s football</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now, Sam, Have you been watching the World'Cup?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cricket or football? because they are both being playing at the moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They are, I am talking about football, the women's world cup.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In that case, yes, I have, I've really enjoy it. and it'has been great that finally we can watch the matches live on TV.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And that there has been so much interest in the media.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We will be finding out a little bit more about the history of the women's football in English in today's programme. But first Sam, a question for you. When was the first official women's football world cup. was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I think I can get this through mathmatics rather than knowledge, so I am not going to say right now, but I will tell you later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK well I'll tell you the answer later in the programme. Now Gemma Clock is a writer on women's football in England and she spoke recently on the BBC women's hour programme. Here she describes reaction throughout the years to women's football. Has it been easy for the women's game in England.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Women's football has really been a struggle to play to have any kind of agency and to be taken seriously as athletes. that can be seen throughout history I think every moment the women's football has had, you know there has been a kind of a backlash afterwards or a kind of an attempt to keep women back and to dampen enthusiasm for this sport.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it's not been easy. has it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, she said it's been a struggle which mean it's been difficult to make any progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And she also mention there was no agency in the women's game. To have an agency means you have control over your own situation, you can make the decision you want to make. So she's saying that the women's game didn't really have control over its own future.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ever time they had some success, there was a backlash, there was a negative reaction to their success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right. And she goes on to say that people tried to dampen enthusiasm for the sport. They tried to make difficult to see and enjoy. So who troed to dampen enthusiasm and how did they do it? Durning and after first world war wonem's football became really popular with crowds of up to 50000 watching games. It may have been popular with crowds but it wasn't so popular with the men who ran the games. The english football association. Here's Gemma Clarke again.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A236"/>
+  <dimension ref="A2:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2504,6 +2580,101 @@
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="33">
+      <c r="A244" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="33">
+      <c r="A250" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="49.5">
+      <c r="A251" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="33">
+      <c r="A254" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="66">
+      <c r="A256" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2517,9 +2688,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="281">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,6 +1053,159 @@
   </si>
   <si>
     <t>That's right. And she goes on to say that people tried to dampen enthusiasm for the sport. They tried to make difficult to see and enjoy. So who troed to dampen enthusiasm and how did they do it? Durning and after first world war wonem's football became really popular with crowds of up to 50000 watching games. It may have been popular with crowds but it wasn't so popular with the men who ran the games. The english football association. Here's Gemma Clarke again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The men's football association were panicked by seeing women doing so well and they banned all women from playing football on association grounds and that lasted for about 50 years. It's a very concerted effort to keep women's football at amateur status and ensure that there weren't crowds watching them play.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the men were really worried by the success of the women's game. They thought that it might take money and supporter away from the men's game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So they banned the women from playing on their pitches. This means that they no longer allowed them to use the pitches anymore. This effectively killed the professional women's game as up to then they had been using the same facilities as the men.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This she says was a concerted effort to restrict women's football. When you make a concerted effort to do something it means you try really hard to do it.
+I am pleased to say that the ban no women using football association pitches was eventually lifted, Although only comparatively recently in 1971.Right, before we review today's vocabulary, let's have the answer to today's question. So I asked you Sam, when was the first official woemn's world cup. Was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and you said Sam you were going to work this out with maths , so come on then</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I did, so I know the world cup is held every four years. it's 2019 now so the answer must be an odd year which make sense 1991. Am I right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wel we will see if that mathmatical approach is any better than actually just knowing the answer. The first world cup for women was actually held is 1970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, I can't believe I got that wrong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But it wan't officially tournament. The first official women's world cup was indeed 1991. Your maths worked. So well done Sam and everybody else who got that right. Now before we get to extra time and penalties. let's recap today's vocabulary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A struggle is how you can describe something that is very difficult to achieve something you have to fight for.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To have agency means being able to act independently and have controll over your own choices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A backlash is a strong nagetive reaction to something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you try to dampen enthusiasm for something, you try to make people less interested in it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banning something means using certain power to stop something from happening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally making a concerted effort means trying really hard.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is it a good idea to have a tattoo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are going to talk about tattoo. Are you a fan?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of tattoo? I don't have one. But they can be quite impressive works of art.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well, I am not that keen on tattoos, I mean who wants things drawn on their body?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It sounds like you need some convincing Rob. Maybe our discussion today will change your mind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maybe, but as you are a fan of them, here is a question for you to answer. According to the  Guinness World records. The record for the most tattooed person in the world goes to loucky dimand rich form New Zealand. Do you know how much of his body is coverred by tattoos? Is it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 90% or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's got to be 100% if he is the most tattooed man, surely?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not necessary. but we will see if you are right at the end of the programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now that's talk about tattoos. I know many people have them. Sometimes is a picture of animal, like a small gecko. Sometimes is words like I love you or the name of a loved one. And then there are the huge designs spread across someone's back, chest, or arm like footballer David Beckham has. Well, he is not stranger to tattoo parlour. The parlour is the name of the shop where a tattoo artist draws a tattoo on you with ink and a needle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needle ouch!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, so you need some convincing. So let's hear from Lucy Parfitt youtuber and tattoo fan. Here she is speaking on the BBC smart consumer podcast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am a quite creative person and ever since  I first discovered tattoos, I thought it's a really cool way of expressing youslef. I am quite a visual person as well so for me it really like just looked really cool. And it made me think more about my own like personality and how I could exprees that in creative ways.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right, so lucy describs herself as a creative person, when you are creative, your are imaginative and you like to experiment with new ideals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes Rob, and tattoos are a good way to be creative. Trying out different designs and colours. It's a good way to express youself. Here to express youself means to show how you feel in a particular way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK so some people express themselves through singing or wearing particular clothing, but here she is expressing herself through the images on her skin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But what happens if you want to change what you want to express.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, then that's time for a new tattoo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, well , I know that the tattoo industry is big business now which means it's popular and making lots of money. I've heard that one in five people now have a tattoo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not you yet, Rob.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1426,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A256"/>
+  <dimension ref="A2:A298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2675,6 +2828,211 @@
     <row r="256" spans="1:1" ht="66">
       <c r="A256" s="1" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="49.5">
+      <c r="A257" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="33">
+      <c r="A259" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="49.5">
+      <c r="A260" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="33">
+      <c r="A268" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="33">
+      <c r="A281" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="49.5">
+      <c r="A288" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="49.5">
+      <c r="A291" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="33">
+      <c r="A293" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="33">
+      <c r="A297" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="317">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,15 +1205,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not you yet, Rob.</t>
+    <t>Not you yet, Rob. But it has certenly became a trend recently years , and it something tattoo artists has Lee clement has noticed. Also speaking on the BBC smart consumer podcast he explains why he think that is.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The thing for me that has obviously changed massively over the last possibly ten years. Is you see a lot of celebrities getting tattooed with that comes the fact that you're going to get people who want to copy them or it becomes almost like a fasion thing so you do see certain tattoos, sort of, become a trend, yes so I guess it kind of dilutes that value a little bit, yeah.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ah, so it's celebrities famous well-known people from tv film and fashion that have possibly driven the trend. People want to copy them or it's what he says is a fashion thing. So you have a tattoo because it's fashionable which means it's popular at the particular time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And one of the down side- the negative things about just having one to be fashionable is it dilute it's the individuality of having one. Dilute means to make something less strong or less valuable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am not going to get one anytime soon except maybe a big six on my arm to remind me that we only have six minutes for this programme so I'd better review the answer I asked you earlier.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to Guinness World record the record for the most tattooed person in the world goes to lucky dimand rich from New Zealand Did you know how much his body is covered by tattoos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And I said 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done that is correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has held the certified records since 2006 of being 100% tattooed. This includes tattoos inside his eyelids mouth and ears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wonder who gets to see those.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK well, now it's time to recap the vocabulary we've discussed today. Starting with a parlour</t>
+  </si>
+  <si>
+    <t>That's  the name for a shop or room where certain businesses carry out their trade, such as a tattoo parlour, a massage parlour ,or an ice cream parlour</t>
+  </si>
+  <si>
+    <t>A creative person is someone who uses his imagination and experiments with new ideas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And when we express youslef it means you show outwardly how you feel and what you're thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If something is big business, it's an activity but it's currently popular and making lots of money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And something that is fashionable is popular and when something becomes popular it can dilute it's value or uniqueness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it becomes less strong or less valuable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The business of eSports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you defind E-sport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-sport well this is essentially  competing vedio gaming , individuals and teams take part in competition while they play video games.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So just like me and my kids at the weekend?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, no, E-sport is enormous tens of thousands people tend turn up to watch these events the players are professional and can get huge salary. The best ones are millionaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well maybe I am not quite  in that league yet, but business of E-sport is our topic for this programme. Before we press play on the subject though, a question approximately  how much was generated by e-sport and video games in the last year. Was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 13 billion dollors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 130 million dollors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 130 billion dollors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am going to say a 130 billion dollors. It's a huge amount ,but I think it's that  successful at the moment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok we'll find out if you are right at the end of the programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not so long ago, the idea of making a living playing computer games would have seemed impossible. However, times have changed as technology has improved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, times have changed as technology has improved. E-sport are even going to been include in the 2022 Asian Games. So it might not be long before they make an appearance at the Olympics. Gabriël Rau is a pro E-sportsman he was interviewed for the BBC programme in business. He think e Sports are going to grow and grow. Does he think that's a bad thing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's becoming more of a normal sport thing. With this generation about to have children and moving forward I feel like it might even become a staple. Might become as normal as sports are right now. I don't think it's necessarily  has to be a bad thing. It's time-comsuming though, So I feel like if you do want to introduce anybody, especially children into video games, dicipline is way to go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So is the groth of e Sports a bad thing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not according to xx he thinks that people having children  now have grown  up with computer games and these are beginning to be seemed in the same way as traditional sports.In fact, he thinks they will become a staple.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And what does he mean by that?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somehing that is a staple is a basic element something we expect. For example, in the UK, we talk about patatoes being a staple food, and football being a staple of school curriculum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But he does mention a disvantage, doesn't it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, he speaks quite quickly, but he says that it's time-consuming. It eats up a lot of time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,6 +1433,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1369,6 +1516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1403,6 +1551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1578,1461 +1727,1641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A298"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="66">
+    <row r="3" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="33">
+    <row r="4" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="66">
+    <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="49.5">
+    <row r="6" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="33">
+    <row r="11" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="33">
+    <row r="13" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="33">
+    <row r="14" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="49.5">
+    <row r="15" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="33">
+    <row r="18" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="33">
+    <row r="19" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="33">
+    <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="33">
+    <row r="33" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="99">
+    <row r="36" spans="1:1" ht="99" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="33">
+    <row r="38" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="33">
+    <row r="39" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="33">
+    <row r="42" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="66">
+    <row r="43" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="33">
+    <row r="44" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="33">
+    <row r="45" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="49.5">
+    <row r="50" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="33">
+    <row r="53" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="33">
+    <row r="54" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="33">
+    <row r="58" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="33">
+    <row r="61" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="33">
+    <row r="62" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="33">
+    <row r="68" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="33">
+    <row r="75" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="33">
+    <row r="76" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="33">
+    <row r="77" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="33">
+    <row r="78" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="49.5">
+    <row r="79" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="49.5">
+    <row r="81" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="33">
+    <row r="83" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="33">
+    <row r="86" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="66">
+    <row r="88" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="33">
+    <row r="90" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="33">
+    <row r="96" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="33">
+    <row r="98" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="33">
+    <row r="106" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="33">
+    <row r="112" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="33">
+    <row r="113" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="49.5">
+    <row r="114" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="33">
+    <row r="119" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="33">
+    <row r="121" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="33">
+    <row r="122" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="49.5">
+    <row r="125" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="49.5">
+    <row r="126" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="49.5">
+    <row r="129" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="49.5">
+    <row r="135" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="33">
+    <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="33">
+    <row r="146" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="33">
+    <row r="147" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="33">
+    <row r="156" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="33">
+    <row r="162" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="33">
+    <row r="163" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="66">
+    <row r="164" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="33">
+    <row r="165" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="33">
+    <row r="166" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="33">
+    <row r="168" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="33">
+    <row r="169" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="33">
+    <row r="170" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="49.5">
+    <row r="171" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="33">
+    <row r="172" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="49.5">
+    <row r="175" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="33">
+    <row r="180" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="33">
+    <row r="185" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="33">
+    <row r="190" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="33">
+    <row r="201" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="49.5">
+    <row r="202" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="33">
+    <row r="204" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="33">
+    <row r="210" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="33">
+    <row r="212" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="33">
+    <row r="215" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="33">
+    <row r="216" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="33">
+    <row r="218" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="33">
+    <row r="229" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="33">
+    <row r="230" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="33">
+    <row r="233" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="33">
+    <row r="244" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="33">
+    <row r="250" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="49.5">
+    <row r="251" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="33">
+    <row r="254" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="66">
+    <row r="256" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="49.5">
+    <row r="257" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="33">
+    <row r="259" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="49.5">
+    <row r="260" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="33">
+    <row r="268" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="33">
+    <row r="281" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="49.5">
+    <row r="288" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="49.5">
+    <row r="291" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="33">
+    <row r="293" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="33">
+    <row r="297" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3043,14 +3372,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -3061,12 +3390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="201911" sheetId="2" r:id="rId1"/>
+    <sheet name="201910" sheetId="1" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="625">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,12 +1350,1243 @@
     <t>Yes, he speaks quite quickly, but he says that it's time-consuming. It eats up a lot of time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Can death metal bring you joy?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rob, do you like metal?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that's an add question, I never though about it. I mean, I use metal things everyday, my toaster, my bike , the underground.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not that kind of metal. This kind of metal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, that kind of metal, the music genre, the type of music.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And a particular , death metal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That fast, loud, aggressive sounding, guitar-base music style?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes that's the one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nope, not my cup of tea at all. What kind of person you think I am?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, that's the point, the kind of person who likes death metal may not be the kind of person you think they are.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1920s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 1930s or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 1940s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More on that, shortly. but first, a quiz the electric guitar is the essential element to death music and which decad with the first electric guitar produced. Was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, we'll see if you are right later in the programme. Does the violent music give people violent thoughs. Recent research claims to have found the answer. This is how the topic was introduced on BBC news. What was the conclusion?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A psychological study of fan of death metal suggests that they are not desensitised to violence despite the the genre's association with growling, often graphically violent lyrics including depictions of cannibalism. research has found the main response of fan to the music they love was, joy not vionence. Adding that most are very nice people whowouldn't dream of hurting anyone let alone eating them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what conclusion did reasearchers come to?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee, they found that the response to the music was joy not anger or violence it made people happy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There was a fear that they listen to the music with violence lyrices which means violent words would make people desensitise to violence.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you desensitise to something , you don't see it as unusual or unacceptable, it doesn't bother you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The newsreader also said that the lyrics of death metal include topics such as cannibalism which is the practice of eating human flesh.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listening to someone singing about eating people apparently didn't make them from feel like snacking on their neighbours. Let's hear the introduction again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A psychological study of fans of death metal suggests that they are not desensitized to violence despite the genre's association with growling, often graphically violent lyrics including depictions of cannibalism. Researchers found that the main response of fan to the musics they love was joy not violence. Adding that most are very nice people who wouldn't dream of hurting anyone let alone eating them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor Bill Thompson from Macquarie university in Sydney conduct this research, what does he say people don't feel when listening to this kind of music?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most fans are not angry, most are actually musically trained people who really get a lot of empowerment and aesthetic intrest out of the musics they feel joyful, they feel empower but what they don't feel is angry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What don't people feel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they don't feel angry. what they do it feel is joyful, the adjestive from joy. They feel happy something else they feel is empowered. This is feeling of being in controll of your life. you can make and follow your own decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music is certainly a powerful art form, Professor Thomson also said the fans have an aesthetic interest in it. This means that they appreciate it as an art form. Let's hear professor Thomson again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most fans are not angry, most are actually musically trained people who really get a lot of empowerment and aesthetic inerest ,aesthetic music they feel joyful, they feel transcendent , they feel empowered but what they don't feel is angry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to review our vocabular, but first, let's have the answer to the quiz question in which decade were the first electric guitar produced? Was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think? Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I took a guess at 1920s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, electric guitars were early but not quite that earily I am afraid. The first ones were produced at 1930s so well done if ,unlike Rob, you got that correct. Now, onto the vocabular.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes we had a few words connected with music. We had genre for a style of music and also lyrics for the words of a song.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some of the lyrics of death metal songs are about eating people which is called cannibalism.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannibalism is a form of extreme violence. There were some concern that people exposed to such violent lyrics in songs might become desensitised to actual violence.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This means they would accept violence as normal and not be worry about it. However, the researcher showed that this doesn't happen and fans actually feel joy which is another way of saying happiness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The research also suggested that fans have an artistic appreciation of death metal, described as an aesthetic interest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The final word was for a feeling that fans might get after listening to the music. empowered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someone who is empowered is in control of their own life and decisions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And I feel empowerd to bring this edition of 6 minutes english to a close.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is talking on the phone embarrassing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam, do you know Stephen Fry?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not personally, but I know of him Stephen Fry is an English writer and comedium and is well known for being extremely intellingent and very knowledgeable about many things cultural , historical, and linguistic.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be knowledgeable means to know a lot about something. I wish I was half as  knowledgeable as he is.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I wish I were a quarter as knowledgeable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is still time, Sam. And maybe this week's question will help you become just a little bit more knowledgeable on the topic of the telephone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 15km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 10km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first long-distance telephone call was makd in 1876 approximately what was the distance of that call? Was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 20km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think? Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So when you long distance...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For the time, yes, remember the telephone was only a baby at 1876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In that case, I will say approximately 15km, but that's just a guess, a long distance guess.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will, find out if you are right at the endl of the programme. Stephen Fry is also known as a technophile. The suffix "phile"  means a lover of that thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think the telephone was a really annoying blip in our communcation and that's old technology in 1880s and 1890s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">And when you are on the telephone to someone especially if your're British- you know that Bernard Shaw thing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the moment one Englishman opens his mouth another Englishman despises him, and when you are speaking to someone on the telephone all the age, class, education , vocabular all come into to play, because it's in real time. And it's embarrassing. I hate being on the telephone to people. Especially, strangers in the shops and things like that it's embarrassing  and awkward.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So why desn't he like telephone?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well ,He uses a quote from the writer George Bernad Shaw. It's not the exact quote but meanning is that as soon as  a English person speaks, another English person depises them. To despise someone is a very strong emotion and it means to really hate someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what is it about the English person's voice that leads others to despise them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephen Fry goes on to explain that there is a lot of information about someone that people get from thair voice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can make a judgement about someone's age, level of education, and class from the way that they sepak, and the vocabular they ues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So a technophile is someone who loves technology. Fry was a guest  on the BBC podcast word of Mouth and was talking about technology of communication. It seems he is not a fan of the telephone. But why not?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Class refer to your economic and social position in a society. In Britain, we talk about three classes, upper class, middle class, and working class. The family into which you are born dictates your class, these used to be a lot more important in British society, but there are still different prestiges and negative feeling relate to the relationship between the classes. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly, so hearing someone's voice on the telephone might make you think something negative about someone based on very old-fashion ideas of class.</t>
+  </si>
+  <si>
+    <t>What makes it works is that these conversations happen in real time. This means they happening live. not recorded, so you have no time to really think about it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So he maybe a technophile, but he's not a fan of the phone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed, he called it a blip which is a word for when  something is not quite right. When there's a fault or a mistake which is  usually not long lasting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So do you think he is right?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, actually, I don't like to talk to strangers on the phone very much myself, but that's just me. But I do think that although the class division in British's society on much less obvious and much less import than in the past, we still do make judgement about people based on how they speak and those judgements can often be compeletely false.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right nearly time to review our vocabulary, but first, let's have the answer to today's question. The first long-distanced telephone call was made in 1876 approximately what was the distance of that call was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think? Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I guessed 15km but it was just a guess.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, sadly on this occasion that is not the correct guess, the correct answer is approximately 10 km or six miles. Congratualation if you go that right, now on with the vocabulary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We started with the adjective knowledgeable which means knowing a lot about something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To despise is to hate someone strongly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A technophile is someone who loves technology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class refer to a group in society you are said to belong to from your birth. certain stereotypes are often attached to different classes to do with intelligence and education ,for example.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In real time is an expression that means happening live without any pauses or breaks so for example, you aren't listening to this programme in real time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I am.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Of course, you are, Nail, because you are here with me as we are recording, but you are listening to the podcast it's no longer real time. It has been recorded and edited.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And we have one other word, didn't we?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, a blip which is a temporary fault or mistake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why's it called 'mother tongue'?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgina What language do you speak?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, my mother tongue is English and I also speak Spanish and French badly!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is interesting that we say monther tongue, isn't it? Like many language, English has a number of gender specific terms that don't refer to gender specific ideas and concepts. And this complicated relationship between language and gender is what we will be talking about today. But first, this week's quiz question which is also on the topic of language. Which these languages is the newest? Is it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a Esperanto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think, Georgina?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c Light Warlpiri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b Africaans or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I only herd of two of these- Esperanto and Afrikaans- so I think I am going to choose the other one Light Warlipiri. Purely as I've nerver heard of it, so I think that must be the one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, we will find out if your intuition is correct later in the programme. Professor Lera Boroditsky is a cognitive scientist who was a guest on the BBC world service programme, The conversion. Shw was asked about why we use the term mother tongue in English.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different languages actully do it differently, but definitetly there is a strong association between mother as a primary caregivers and people who teachs things and so there is that point of origin metaphor that applies in a lot of languages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So well, how does she explain the use of mother tungue, Georgina?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, she says it's a form of metaphor. A metaphor is a way of describing something by comparing it to something else. In a metaphor though, you don't say that something is like something else, you say that it's something else. For example, having a good friend is the key to a happy life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's indeed, in this metaphor, language is seen as coming from your primary caregiver, the person who looked after you most when you were young, and traditionally this was mothers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So this is perhaps the point of origin the starting place of the metaphorical phrase mother tongue. Let's listen again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different languages actually do differently, but definitely there is a strong association between mothers as primary caregivers and people who teache us things and so  there is that point of origin metaphor that applies in a lot languages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language is very powerful in society and cultural, and when it comes to gendered language it can cause some issues. Here's Lera Boroditsky again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In English, of corse we have some words, they are gendered like actor actress or waiter and waitress. and very commonly when there are those two gender forms people perceive the masculine form as being a more prestigious job or more skilled job than the feminine form, so an actor is a fancier job than an actress  and a waiter is a fancier job than a waitress, and so they could then come with pay disparities and so on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what's the subconscious difference in attitude towards, for example an actor and actress?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, she says that people perceive those roles differently. This means that we are aware of or believe there is a difference in the jobs because of the vocabulary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The man form is perceived to be more prestigious more important, more respected, even though it's exactly the same job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And this attitude can lead problems such as disparities in pay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A disparity is difference, an inequality, and in the world of work it can mean man getting paid more than woman for the same job. Here is Professor Boroditsky again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In English, of corse we have some words, they are gendered like actor and actress, or waiter and waitress. And very commonly, when there are those two genders forms people perceive the masculine form is more prestigious job or a more skilled job then feminine form. So an actor is a fancier job than an actress, and waiter is a fancier job than waitress. And so they could then come with pay disparities and so on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, before we take another look at today's vocabular, let's reveal the answers to this week's quiz.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which these languages is the newest? Is it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a esperanto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c light Warlpiri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgina, what did you say?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I thought it had be Light Warlpiri but just because I'd never heard of it before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratuations your instincts were good, that is correct.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So let's move on to vacabulary and look at today's words and phrase again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A primary caregiver is a person who has most responsibility for looking after someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A point of origin is a place or time when something begins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A metaphor is a way of describing something, we can say that something is something else that has similar qualities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're a star!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aw, thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I meant, you're a star, is an example of a metaphor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To perceive is to think of something in a particular way, we might perceive that value of different jobs base on the vocabular used to describe them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somehting prestigious is important and respected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally, a despirity is a difference and inequality and often used when talking about how man and woman aren't always paid the same for the same job.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Women and motorbikes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I say to you, Sam, motobilke, what do you think of?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think of the film, easy rider, with Jack Nicholson and Peter Fonda cruising the wide open sapces on powerful machines. How about you Neil?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh, well, I think of the youn man on a moped who delivers my pizzas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Not quite the same image, is it, really? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, but in both cases we were associating motorbikes with male figures. Today we are looking at women and bikes, but before that, a quiz.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what did you think, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In which decade was the first mass-produced motorcycle released? was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tricky question, the 1880 may be too early, so I think I'll play it save  think of for the middle option, the 1890s.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1880s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1890s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1900s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, we'll see if you are right late in the programme. Esperanza Miyake Is the author of a new study of the gender motorcycle in filem, advertising, and TV. She was interviewd on the BBC radio's thinking allowed programme about the topic. First she was asked about the experience of traveling at over 110 kph on a motorbike, what word does she say you are part of.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think it dissolves gender race all these things stop mattering it's all about experinences so  car drivesr tha's a lot about enjoying the internal space of the car. On the bike obviously, there is no interiority you are completely part of the exterior world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what world are you in when traveling at speed on the motorbile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The external world because you are not inside the car, your experience is compeletely different. On a bike you have no interiority. That's the experience of being inside. But I do have to say , although that's a real world, it's not one I've ever heard or used before!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Me neither. What she also says is that traveling at speed dissolves the gender and race. It makes them less important. When you dissolve something, you make it less strong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In fact, she says that at speed these thins stop materring. They stop having any importances. If something doesn't matter m it not important at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before that we said that we usually connect motorbike with men. Think bike, think bloke. But what about women and bikes?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She goes on to talk about the way women bikes are usually shown in the media, how many different types does she mention?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generally, there are three types so the first type would be your typical empowered female who is on the motorbike you do have image but having said that I would also add those images appear typically very sexialized, very stylised, so yes, she is empowerd but she is in a skintight catsuit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And you also get another type which is the female rider but who has been masculinised. She's kind of embodying a very masculine kind of style.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">And I think the third type is kind of silly, giggly female on a scooter. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So she talked about three types of representations particullary in movie. Sam tell us more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, she first talked about the empowered woman. This is a character who has authority, who has the power to drive the plot and action and is not dependent on a man to make decisions for her. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, she first talked about the empowered woman. This is a character who has authority who has the power to drive the plot and action and is not dependent on a man to make  desisions for her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems like a positive image but she does say that these characters are often sexualised that is, presented in a way that might be sexually appealing for  a male audience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The next character type she mentioned is a woman who is very musculine. They imbody male characteristics which means they have and demonstrate many typically male personality features.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And the finally type she talked about was showing women on by silly and giggly riding scooters. So they don't seem to be many really compeletely positive images of women and motorcycles, at least not in the popular media.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to look again at today's vocabular, but first , let's have the answer to the quiz question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 1880s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 1890s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 1900s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think, Sam?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I took a guess at 1890s.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done, it was a good guess. It was indeed the 1890s and the bonus point if you knew that it's 1894.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK Let's have a quick reminder of today's words, we started with the verb dissolves. If something dissolves it gets less strong less immediate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we had another verb to matter, something that matters is important to someone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the next word.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was a rather uncommon word to describe the experience of being inside interiority.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tha's rush by that one and move on to the next word empowered. Someone who is empowerd is in control of their own life, when we talk about empowered women we are talking about women who are not depedent on men or anyone else for the direction of their lives. They make their own choices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our next word was sexualised this is when something is given a clearly sexual styling. In the programme, we heard that women on motorcycle are often shown in a saxualised way, dressed in clothing for example, that makes them saxually attractive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally, that was to embody, This means to be a clear and obvious example of something. So in movie, female bikers often embody male characteristics, which means they might dress or behavior in a way we would usually associate with men. Well it's time for us to say goodbye.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire shoppers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rob, how do you feel about shopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mooching around a shopping mall from one shop to another, spending money it's my ideal of hell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How about shopping online?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh yse, much better. Sitting in front of the TV and browsing online is much easier.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, that can be a problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's sometimes too easy, especially when we are tired, and we sometimes make purchases we regret.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's what we will be talking about in this programme,an activities known as a vampire shopping but before we continue, it's my job to set you a quiz question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So here goes, according to the UK, official for National Statistics at the end of 2018 what percentage of all retail sell took place online? Was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 29.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 9.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 19.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buying things online is big business now, so I'll say c 29.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, you'll have to wait a bit to find out, but let's talk more now about vampire shopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This term refers to shopping late at night, tranditionally a time when vampire appears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most of us are asleep at this time, but sleep-deprived parents, shift-workers and gamers might not be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are an insomniac someone who can't sleep easily. It's tempting to open up your laptop and start shopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online shops are open twenty-four hours a day, so it's so easy to get suck in and do some shopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you get sucked into something, it means you can't stop yourslef getting involved with something that you didn't want to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what you are saying Neil is at night, when you are very tired, we don't always think straight, and can make some bad decisions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tha's right, And this shopping temptation can be particularly problematic for those with mental health issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's something Helen Undy has been talking about on the BBC radio four programme you an yours.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is the chief executive of the money and mental health institute. Let hear what she had to say.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our ability to control our impulse to spend and to resist things like advertising is reduced when we're sleep deprived. Mental health problems can have a similar effect, so the mental health problems themselves make it harder to resist the urge to spend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And they also cause sleep deprivation ,so you're alone possibly  surfing the internet and both the lack of sleep and the mental health problems, make it harder to resis things you can see.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen say that for all of us when we were sleep deprived that means not having enough sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We find it harder to resist the urge to shop, we're more sucked in to shopping by the advertising we see.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And resist the urge means stop yourself acting on a strong feeling to do something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But this is more serious for people with mental health issues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They are particulaly sleep deprived, and alone with everything that's going on in their mindd, they find it harder to resist , to stop themselves buying things</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suppose buying things at night if you are alone give you some confort, even a feel good factor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suppose buying things at night, if you're alone, gives you some comfort - even a feel-good factor- doing something that gives someone a happy and positive feeling. I certainly feel good when I bought something. but Rob, have you ever bought something you regret?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. Bits of tech, even flight tickets to somewhere, I didn't really want to go to, because they were cheap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regret is a sad feeling you get when you've made a mistake, wish you hadn't made the mistake in the first place.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We all  have regrets Rob, Particularly, when buying things, there is usually the option to return something and get refund.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's true, but it's not always easy. Let's hear what Halen Undy had say about that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We found in our research that 75% of people, so regardless of whethert they've got a mental health problems or not, three-quartesr of people didn't send back the last thing they bought online that they regretted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we found that four in ten people with mental health problems didn't send things back because they were so ashamed of the things they were buying that they just wanted to pretend it never happened.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So she says that three-quarters of people didn't send back the last thing they bought that they regretted. Maybe they were too embarassed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Possibly, but it not always easy to return an item and for those with mental health issues it can be a struggle a great effort.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen Undy says that sometimes they were ashamed of their purchase.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I think we have all bought things we are ashamed of, while online shopping continues to expand the temptation will always be there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, your question earlier was about the rise in online shopping so what's the answer Neil.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I asked according to the UK's Office for National Statistics at the end of 2018, what percentage of all retail sales took place online? Was it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 9.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 19.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 29.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said c 29.8% I've got to be right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, you are not, the rise was a bit smaller at b 19.8%, but that's still large compared with 10 years previously when the figure was just 5.8% of all retail sales.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No doubt the figure will continue to rise, and before I nip off to do a bit of vampire shopping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's recap some of the vocabulary we've mentioned today. Starting with insomniac.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An insomniac is someone who can't sleep easily they suffer from insomnia.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next we talked about to get suck into something, this informal phrase means not being able to stop youself getting involved with something that you don't want to do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are sleep deprived, you do not have enough sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And if you resist the urge you stop yourslef acting on a strong feeling to do something. For example resisting the urge to buy something online.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But if you don't resist the urge to buy something, it might have a feel-good factor. A feel good factor is something that makes you feel happy and positive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But after you buy something, you may have regret. That's a sad feeling you get when you've made a mistake and wished you hadn't made the mistake in the first place.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do people like sad music?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you like sad music, Neil?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, when I was younger, and if I had a break-up with a grilfriend. I would listen to sad songs. Songs which reflected my mood.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And do you still listen to the songs now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not so much, but I still do like them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, it seems as if there might be a biological reason why some of us do like sad songs. we will look at this topic a little more after this week's quiz question which is about music vedios.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The music video has been around for a while, but in what year was MTV, the first dedicated music video channel, launched in the US? was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you think, Neil?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am going to have a guess. Is it the early 80s?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, yes, care to be more specific?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a long time ago. I was just a small boy. I am going to go for 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK, I will have the answer later in the programme, but first more about sad songs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor David H from Ohio state University has conducted research in this area. And he discussed this recently on a BBC world service radio programme the why factor. He was looking at why some people like sad music and other people really don't like it at all.As he says they just can't stand it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He believes that is to do with a hormone, a aharmon is a natural chenical in our bodies which can have an effect on various systems and also emotions. Listen out for the name of the hormons he mentions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the things that we were interested in is what's the difference between people who listen to sad musice and who love it. And people who listen to sad music and who just can't stand it. In our research, it started pointing towards a hormorn called prolactin, a prolactin as you might have guessed from the name is associated with Lactation from breast-feeding.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When people cry, they also release Prolactin. And there are circumstances in which Prolactin seems to have comforting effect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So which hormorn did he mention?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He talked about the hormorn called Prolactin which he said was connected to Lactation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is tje production of milk by mammals to feed their young.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What he noted was that this hormorn can be released when people cry and in some cases the hormorn has a comforting effect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When something is comforting it makes you feel better. It calms your emotions. Let's llisten again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the things that we were interested in was what's the difference between people who listen to sad music and who love it. And people who listen to sad music and who just can't stand it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In our research, it started pointing toward a hormone called prolactin, Now, a prolactin as you might have guessed from the name is associate with lactation and breast-feeding. When people cry, they also realease prolactin. And there are circumstances in which the prolactin seems to have this comforting effect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what conclusion did he make about this hormone, and how it might be working. Professor Huron explains.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the thought was that, perhaps what's going on is that people who are enjoy listening to sad music are receiving some sort of excess of prolactin. And people who are listening to sad music ant they just find the incredible sad and unhelpful they don't want to listen to it, maybe they are not getting enough prolatin when they listen to music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what's happening or as Professor Huron said what's going on?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, it seems quite simple, though, I am sure it's very complicated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People who like sad music are mabye getting too much prolactin or more than it's normal. He describes this as an excess prolactin and maybe people who don't like sad music aren't getting enough.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the idea is that prolactin is a hormone which we find comforting. if our bodies release it when we hear sad music it gives us a good feeling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But if prolactin isn't realeased or there isn't enough of it, we just find tje sad music sad and it doesn't help to cheer us up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You know emotions are funny things. it's weird to think that our feeling are caused by different natural chemicals that run around the body. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absolutely, ok we are going to take another look at today's vocabulary, but first , the answer to this week's quiz.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and Neil you said? I said it was definitely early 80s.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are not wrong there, but which year exactly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well, you need to dig out a sad song to make you feel better now, because the answer was 1981.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh dear, I can feel my prolactin levels dropping already.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sure you can, but let's move on to the vocabulary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you can stand something, it means you really don't like it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hormone is one of the body's natural chemicals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And the hormone prolactin is connected with lactation which is the production of milk by mammals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something that is comforting makes you feel better emotionally.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The phrase what's going on has a very similar meaning to what's happening .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And an excess of something is too much or a more than normal amont of that thing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, before you have an excess of our company, we should wrap up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What to do when you can't sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You look tired, Rob.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I didn't sleep well last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was tossing and turning all night, but I couldn't get to sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, that's a coincidence as our topic today is insomnia the condition some people suffer from when they find it difficult to get to sleep when they go to bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thankfully I don’t really have insomnia, but every now and again, I find it difficult to get to sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, keep listening and we might have some advices to help with that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But first a question, what is the record for the longest a human has gone without sleep? Is it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All of those seem impossible, so I've got to go with the shortest. about 7 days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, if you can stay awake long enough, I'll let you know at the end of the programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Michle Grandner is an expert in all things to do with sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was interviewed recently on the BBC Radio Programme business daily. He was asked what his best tip was to help you get to sleep if you are finding it difficult. What was his suggestion?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And it sounds counter-intuitive but trusts me, I've got decade s of data behind the statement. If you can not sleep, get out of bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So Rob, How does he suggest you help yourself to get to sleep?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, Actually, he says that the best thing to is to get out of bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That sounds exactly the opposite of what you should do, doesn't it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, he does say that his advice is counter-intuitive, which means exactly that that's the opposite of what you might expect.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And he syas that this advice is backed up by decades of research.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a decades is a period of ten years, and when we say decades, it's a general term for many years, at least 20. Let's hear that advice again from Dr. Grandner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it sounds counter-intuitive but trust me, I've got decades of data behind the statement. If you cannot sleep, get out of bed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So why is getting our of bed good advice, here is the explaination from Dr. Grandner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you are in bed, and you are not asleep, and you do that over and over again for extended periods of time. The ability of the bed to put you to sleep starts getting diluted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the ability of the bed to put you to sleep starts getting diluted. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not only that it starts getting replaced by thinkg and tossing and turning, and worrying and doing all these things. when you are not asleep, get out of bed, this is probably the most effective ways to prevent chronic insomnia.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's also one of the really effective ways to treat it, it won't work 100% of all the time, but it will actually work more than most people think.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we normally sleep in beds. Beds are designed to make it easy to sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But if we can't sleep, that makes the bed's impact weaker, As Dr. Grandner syas it dilutes the power of the bed to help us sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1516,7 +2747,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1551,7 +2781,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1727,1642 +2956,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="121.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="49.5">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="33">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="33">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="33">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="33">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="33">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="33">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="49.5">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="33">
       <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="33">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="49.5">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="99" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="33">
       <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="49.5">
       <c r="A56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="33">
       <c r="A57" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="33">
       <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="33">
       <c r="A60" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="33">
       <c r="A64" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33">
       <c r="A68" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="33">
       <c r="A69" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="33">
       <c r="A70" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="33">
       <c r="A71" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="33">
       <c r="A72" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="49.5">
       <c r="A85" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="33">
       <c r="A86" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="33">
       <c r="A87" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="33">
       <c r="A96" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="33">
       <c r="A112" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="33">
       <c r="A113" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="33">
       <c r="A118" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="33">
       <c r="A120" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="33">
       <c r="A125" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="33">
       <c r="A126" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="33">
       <c r="A137" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="33">
       <c r="A141" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="33">
       <c r="A144" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="33">
       <c r="A145" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="33">
       <c r="A152" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="49.5">
       <c r="A162" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="33">
       <c r="A163" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="49.5">
       <c r="A164" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="33">
       <c r="A171" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="49.5">
       <c r="A172" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="49.5">
       <c r="A174" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="33">
       <c r="A177" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="33">
       <c r="A204" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="33">
       <c r="A215" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="33">
       <c r="A222" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="33">
       <c r="A225" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="33">
       <c r="A227" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3372,30 +4115,2112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="E364" sqref="A351:E364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="121.75" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="66">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="33">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="66">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="49.5">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="33">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="33">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="33">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="49.5">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="33">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="33">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="33">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="33">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="99">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="33">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="33">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="33">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="66">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="33">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="33">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="49.5">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="33">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="33">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="33">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="33">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="33">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33">
+      <c r="A68" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="33">
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="33">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="33">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="33">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="49.5">
+      <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="49.5">
+      <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="33">
+      <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="33">
+      <c r="A86" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="66">
+      <c r="A88" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="33">
+      <c r="A90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="33">
+      <c r="A96" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="33">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="33">
+      <c r="A106" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="33">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="33">
+      <c r="A113" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="49.5">
+      <c r="A114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="33">
+      <c r="A119" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="33">
+      <c r="A121" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="33">
+      <c r="A122" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="49.5">
+      <c r="A125" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="49.5">
+      <c r="A126" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="49.5">
+      <c r="A129" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="49.5">
+      <c r="A135" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="33">
+      <c r="A136" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="33">
+      <c r="A146" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="33">
+      <c r="A147" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="33">
+      <c r="A156" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="33">
+      <c r="A162" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="33">
+      <c r="A163" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="66">
+      <c r="A164" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="33">
+      <c r="A165" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="33">
+      <c r="A166" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="33">
+      <c r="A168" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="33">
+      <c r="A169" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="33">
+      <c r="A170" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="49.5">
+      <c r="A171" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="33">
+      <c r="A172" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="49.5">
+      <c r="A175" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="33">
+      <c r="A180" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="33">
+      <c r="A185" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="33">
+      <c r="A190" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="33">
+      <c r="A201" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="49.5">
+      <c r="A202" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="33">
+      <c r="A204" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="33">
+      <c r="A210" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="33">
+      <c r="A212" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="33">
+      <c r="A215" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="33">
+      <c r="A216" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="33">
+      <c r="A218" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="33">
+      <c r="A229" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="33">
+      <c r="A230" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="33">
+      <c r="A233" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="33">
+      <c r="A244" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="33">
+      <c r="A250" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="49.5">
+      <c r="A251" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="33">
+      <c r="A254" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="66">
+      <c r="A256" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="49.5">
+      <c r="A257" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="33">
+      <c r="A259" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="49.5">
+      <c r="A260" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="33">
+      <c r="A268" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="33">
+      <c r="A281" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="49.5">
+      <c r="A288" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="49.5">
+      <c r="A291" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="33">
+      <c r="A293" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="33">
+      <c r="A297" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="33">
+      <c r="A298" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="49.5">
+      <c r="A299" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="33">
+      <c r="A300" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="33">
+      <c r="A301" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="33">
+      <c r="A302" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="33">
+      <c r="A303" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="33">
+      <c r="A320" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="33">
+      <c r="A321" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="33">
+      <c r="A327" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="49.5">
+      <c r="A328" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="49.5">
+      <c r="A329" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="33">
+      <c r="A331" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="33">
+      <c r="A333" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="33">
+      <c r="A347" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="33">
+      <c r="A351" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="49.5">
+      <c r="A352" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="33">
+      <c r="A358" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="49.5">
+      <c r="A359" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="33">
+      <c r="A360" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="33">
+      <c r="A361" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="33">
+      <c r="A363" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="33">
+      <c r="A364" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="33">
+      <c r="A365" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="33">
+      <c r="A372" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="33">
+      <c r="A375" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="33">
+      <c r="A376" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="33">
+      <c r="A383" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="33">
+      <c r="A396" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="49.5">
+      <c r="A399" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="33">
+      <c r="A401" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="49.5">
+      <c r="A405" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="33">
+      <c r="A407" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="49.5">
+      <c r="A411" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="33">
+      <c r="A412" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="33">
+      <c r="A418" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="33">
+      <c r="A422" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="33">
+      <c r="A425" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="658">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2579,6 +2579,141 @@
   </si>
   <si>
     <t>But if we can't sleep, that makes the bed's impact weaker, As Dr. Grandner syas it dilutes the power of the bed to help us sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Being slim: Is it in our genes?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's my normal figure, and I am not being on a diet, but it looks you guy should put on a bit of way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And can I say Dan, you are looking very slim, it looks like your diet is working!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my normal figure – and I have not been on a diet. But it looks like you've actually put on a bit of weight. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well I may have a little paunch – or a fat stomach, but didn't you know it's out of my control, some of this  has to do with my genes. Not the ones I wear.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but the cells in my body that control my development that's what we will be discussing in this programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, our audience might describe themselves – tubby and overweight or thin and skinny, which means very thin – they're more than welcome to join us on this voyage of discovery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So let's start with answering the question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the name of the popular diet that involves avoiding eating carbohydrates and in which you can eat as much fat and protein as you like? Is it…
+a)    the Mediterranean diet,
+b)    the Atkins diet, or
+c)    the Graham diet? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the name of the popular diet that involves a avoiding eating carbohydrates and in which you can eat as much fat and protein as you like. Is it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a the Mediterranean diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b the Atkins diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or c the Graham diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard of the atkins diet, so I will say b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well, you'll have to wait a bit to find out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But Dan, you may have also heard of a crash diet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's where someone makes a rapid change to the types of food they eat with the end of lossing weight quickly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I know that eating this way can be risky for your health and they don't always work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">That's true, and now scientists have some evdience that show that our weight is not just controlled by what we eat. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it might be quite natural for someone to be thin or fat - it's all to do with their genes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research published in the Journal PLOS Genetics, explains how twin studies have shown that about 40% of the variation in a person's weight is affected by their genes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And also why thin but healthy people have genetic advantages in turns of maintaining a healthy weight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">So that means that lossing weight isn't just about having willpower  that's controlling your own behaviour to achieve something </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's actually about something that's out of our controll.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, possibly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's hear from the study's author who is professor of Metabolism and Medicine at the university cambridge. And has been a pioneer in the genetics of obesity for more than twenty years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obesiby of course, it where someone is very overweight, in a way that is dangerous for their health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here she is speaking on the BBC World Service programme health check. What did she say might be one of the benefits of this research for people who are overweight?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It actually can be very helpful in trying to get them to come to terms with some of the difficulties they may be having </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But also help them engage with help and support to try and encourage weight loss.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I hope one of the main outcomes of this work might be, to a little bit to start to get people thinking about that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because people are very judgemental and tend to think, look if I can stay thin and control my weight why can't you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And what I would say to that is, well the data now shows that you're probably quite lucky in terms of the gene that you have rather than just being  either morally superior or having better will power.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2957,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A231"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4106,6 +4241,174 @@
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="33">
+      <c r="A236" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="33">
+      <c r="A238" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="66">
+      <c r="A244" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="33">
+      <c r="A252" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="33">
+      <c r="A257" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="33">
+      <c r="A259" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="33">
+      <c r="A264" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="799">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2716,12 +2716,575 @@
     <t>And what I would say to that is, well the data now shows that you're probably quite lucky in terms of the gene that you have rather than just being  either morally superior or having better will power.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Some interesting thoughs there for people who are overweight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This research can help them come to terms with the struggle they may be heaving to lose weight.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whan you come to terms with something, you start to accept the difficult or unpleasant situation you are in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So, I suppose she means accepting that if you are trying to shed a few pounds pawn unsuccessfully, it's not all your fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And it may stop people being so judgemental.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's so quick to criticise people based on their own beliefs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A slim person might say, well I ate less and lose weight so why can't you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're just luck to have the right genes but It's doesn't make you morally superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it's not just about having will power, thise research is much more details of course than we ave time to explain here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone who is over weigh will we feel defeated, absoulatly not according to professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For people who are obese this research is helpful , not only should give them hope it could lead to the development of  medicine to help them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As gene only play a part in our size and weight , we all eat healthy diet and do some exerices , And there is always new research about the best things to do and the right things to eat. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently research published in the British Journal Sports medicine said that the burst of high intensity interval training may be more effective for weight loss than longer less intense workouts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A burst is a sudden and short increase in something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even if diets don't help you loss weight, eating a balance diet can certainly keep you healthy and make you feel good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And as I am talking about diet why don't I answer the question I asked you earlier.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the name of the popular diet in which you should avoid eating carbohydrates but you can have as much fat and protein as you want?  is it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a)    the Mediterranean diet,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b)    the Atkins diet, or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c)    the Graham diet? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said the Atkins diet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And that it's correct, well done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This well-known low-carb diet was developed by the America physician and cardiology Robert Atkins in 1960s.Others low-carb diets are available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neil, I think it's time we reminded ourselves of some of the vocabulary we've discussed today.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good idea, let's talk about pauch another name for a fat stomach that the man like me and you have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speak for yourself. I am close to skinny a word to describe someone looking very thin and sometimes ill.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our next word was willpower. if you have willpower you can controll your own behaviour to achieve something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The next phrase come to terms with something means you start to accept the difficult or unpleasant situation you are in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are judgemental you are quick to criticise people based on your own beliefs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally, we mentioned a burst of high intensity interval training, a burst is a sudden and short increase in something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> well, we had a burst vocabular there.</t>
+  </si>
+  <si>
+    <t>Mental health in the workplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this programme, we're focusing on the topic of mental health at work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, it's an issue that can be difficult to see.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If someone has an injury like a broken lag or a serious medical issue, it's obvious and we can understan what's happening.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With a mental healthy issue though, there is no physical sign and people who are experience in difficulties maybe don't get the same one understanding as people who have medical problems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a topic that has been getting more publicity recently, particularly as members of the British Royal Family have been talking about it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also, awareness  is raised through events such as World Mental Heal Day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's the topic of our quiz, World Mental Health Day is held every year on October 10th.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's aims to raise awareness of mental health issues and their effect on people's lives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 1992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 2002 or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think Georgina?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In what  year was it first held? was it:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't know. I think it's will be order than 2012 that's as ord as 1992. I don't know, I am goint to go whith 2002.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK. I will have the answer later in the programme, and we'll see if you are right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental health problem are very difficult personally for thoese who suffer form them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And they also have an impact on businesseses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul Farmer is head of the Mental Health Awareness Charity Mind. He spoke on the BBC World Serverce Business Daily Programme about this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much does he say it cost business in the UK.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We know that the cost of failing to address mental health in business is colossal in the UK.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It costs between 33 and 42 billion pounds a year about 50 billion dollors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And around about 300000 people fall out of work every year as a result of poor mental health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So that’s a huge cost to workplaces and to individuals. Behind those numbers, though, are the lives of talented, able, contributors who often just slide away from the workplace because they don’t get the right help and support for their mental health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So that's huge cost to workplaces and to individuals. Behind thoes numbers, though are the lives of talented, able, contributors who often just slide the way from the workplaces because they don't get the right help and support for their mental helth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What figure did Paul Farmer give there?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He gave the figure of about between 33 and 42 billion pounds which is about 50 billion dollars.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's a lot of money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is, In fact, he called it colossal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This adjuctive means huge, really really big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the cost to business he says of falling to address the mental health issue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falling to address means ignoring  or not dealling with the problems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It leads to staff leaving work, and he says these people are comtributors. They give something to the business in terms of their skill and experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And because of mental health isssu, which could be a addressed but aren't, thoese contributors are being lose to the business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it costs companies more money to recruit and train new stuff and you can't always replace the experience that is lost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's listen again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We know that the cost of falling to address mental health in business is colossal in the UK. It costs between 33 and 42 billion pounds a year about $50 billion dollors. And around about 300000 people fall out of work every year as a result of poor mental health. so that's a  Huge cost to workplaces and to individuals behind those numbers though are the lives of talanted, able, contributors who often just slide the way from the workplace, because they don't get the right help  and support for their mental health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In recent years, it seems as if they had been more underestanding of mental healh issues not just  in the workplace but in society as a whole.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geoff McDonald is a campaigner for the organization minds at work. he spoke on the business daily programme about one way that things are getting a little better.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think what's really changed is pepople telling their stories and the more stories that we tell it kind of begins to normalise this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Evey single story that we tell is like sending a lifeboat out into the ocean. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And the millions and millions of people who are suffering in silence, do you know what they do . they cling on to that lifeboats and they realize they are not alone and they might just be normal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So because more people are talking about this issue, it begins to normalise it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This means it becomes normal. it's not unusual, strange, or hidden.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are people who suffer in silence. They keep to themselves and hide their problem from others but because of there is more publicity  about this topic , they can begin to feel that they are not alone and they don't have to suffer in silence.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">People sharing their stories are like lifeboats for those who do suffer in silence. In this metaphor they can cling onto the lifeboats </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right, we are going to have another look at all the vocabulary, but first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's have the answer to the quiz  when was the first world mental health day? was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 19992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b2002 or </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgina, What did you say?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I though that it was 2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was actually earlier 1992 now a review of our vocabulary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failing to address is a phrase that means ignoring a problem or not trying to help with a problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something colossal is very very big.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A contributor is someone who has something to give who is a positive benefit to, in this case a business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we have the verb to normalise meaning to make something normal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone who suffers in silence doesn't talk about the problems and may hide them from others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And finally, if you cling onto something, you hold onto it tightly. You don't want to let it go.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can we trust a smart speaker?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't take this personally, Dan. But I am not exactly creazy about someone eavesdropping  on my photne call.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you eavesdrop on something, you secretly listen to someone's conversation. Something are privae you know.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One good question for you though, Doe you have a smart speakr, you know like Google-Assistence,amozon's Alexa or Apple's Sire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sure, yse I've got one , it's great! I can ask it all sorts of questions, It tells me about the news, weather, and plays music when I want, it's does all sorts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You just give it a voice command, and it does what you want.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So it can hear you, can it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Of course.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How eslse can you give it a voice command?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all the time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>well, I assume so.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, that's our topic for this 6 minutes English, how save is your smart speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">However, before that here is our quiz question. By what percentage has number of smart speakers used in us household increasde from Dec 2017 to Dec 2018. Is it </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A around 40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B around 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C around 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So smart speaker and privacy, Florian Schaub is an asistant Professor at the Univerty of Michigan School  in M information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did she say pepople are introducing into heir home.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are basically intrroducing ,listenling bug in your home in your most intimate space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While the compaies say they are only actively listening to what's goin on in your home when they hear the keyword, the microphone is still on the whole time in order to be able to detect that keyword.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We don't know to what extent the companies co-operating with the government or to what extent  the government might try to circumvent company security mechanisms in oder to then be able to listen to what you are doing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So what did he say people are introducing, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He basically said we're introducing a listening bug, Now a bug is a small electronic device used for secretly listening to conversation. Much like a spy would use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, And he mentioned it was in our most intimate space.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intimate means private and personal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I can't think of anywhere more intimate than my home.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indeed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He also says that the smart speaker's microphones is on the whole time, even though the companies insist that thay're only activily listening when the keyword is said.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, he suggested that we can't know how far a company might be co-operating with a governmetn to eavesdrop on people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Or whether a government might be circumvanting a smart speaker's security and listening in anyway without the company's or owner's permission.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circumvant means cleverly bypass or go around. So If all this eavesdroping is possible why are smart speakers so popular.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good question. and here's Florian Schaub again with an answer. He conducted a study on people's attitudes and privacy when it cames to smeart speakers. How do people feel about having a smart speaker that could eavesdrop on them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What we often say is People just being resigned to this is the trade-off they have to make if they want to enjoy the convenience that a smart speaker provide to them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He said that pepople are resigned to the privacy trade-off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are resigned to something, you accept something unpleasant that can't be change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, and a trade-off is a compromise. You accept something bad to also receive something good.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so People accept that a smarts peaker gives them advantages even though there could be downsides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, in the grand scheme of things, the data that these devices here probably not that significant considering all the data the company have about us already anyway.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">So can I have the answer to the quiz then? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earlier I asked by what percentage the number of smart speakers used in US households increase from December 2017 to December 2018? Was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you say, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I said c) around 80%. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And you are right, the answer is about 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 66 million in December 2017 to 118 million in December 2018 and around 10 million people in the UK now use one too. I guess they are not worried about eavesdropping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice slide into  the vocabulary, Dan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If someone eavesdrops on you it means they secretly listen to your conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They could be eavesdropping on you through a bug which is a small electronic device used to secretly listen to conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, they may have bugged your most intimate or private and personal spaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next, we had circumvent, if you circumvent something,such as security, you cleverly bypass it or go around it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we had resigned, if you are resigned to something, it means you accept something unpleasant that can't be changed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And lastly, we had trade-off, a trade-off is a compromise, you get something good ,but you also get something bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2761,6 +3324,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2782,7 +3351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2793,6 +3362,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3092,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A265"/>
+  <dimension ref="A1:A412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4408,7 +4978,735 @@
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="33">
+      <c r="A276" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="33">
+      <c r="A277" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="33">
+      <c r="A301" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="33">
+      <c r="A320" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="33">
+      <c r="A321" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="66">
+      <c r="A333" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="33">
+      <c r="A335" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="33">
+      <c r="A338" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="33">
+      <c r="A341" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="33">
+      <c r="A370" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="33">
+      <c r="A377" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="33">
+      <c r="A378" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="33">
+      <c r="A380" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="33">
+      <c r="A385" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="33">
+      <c r="A389" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="33">
+      <c r="A390" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="33">
+      <c r="A395" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="33">
+      <c r="A404" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4421,7 +5719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A427"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E364" sqref="A351:E364"/>
     </sheetView>
   </sheetViews>

--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="201911" sheetId="2" r:id="rId1"/>
-    <sheet name="201910" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="201912" sheetId="3" r:id="rId1"/>
+    <sheet name="201911" sheetId="2" r:id="rId2"/>
+    <sheet name="201910" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="854">
   <si>
     <t>Are you good at complaining?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3208,75 +3208,295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Yes, and a trade-off is a compromise. You accept something bad to also receive something good.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so People accept that a smarts peaker gives them advantages even though there could be downsides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, in the grand scheme of things, the data that these devices here probably not that significant considering all the data the company have about us already anyway.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">So can I have the answer to the quiz then? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earlier I asked by what percentage the number of smart speakers used in US households increase from December 2017 to December 2018? Was it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What did you say, Rob?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I said c) around 80%. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And you are right, the answer is about 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 66 million in December 2017 to 118 million in December 2018 and around 10 million people in the UK now use one too. I guess they are not worried about eavesdropping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice slide into  the vocabulary, Dan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If someone eavesdrops on you it means they secretly listen to your conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They could be eavesdropping on you through a bug which is a small electronic device used to secretly listen to conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, they may have bugged your most intimate or private and personal spaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next, we had circumvent, if you circumvent something,such as security, you cleverly bypass it or go around it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then we had resigned, if you are resigned to something, it means you accept something unpleasant that can't be changed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And lastly, we had trade-off, a trade-off is a compromise, you get something good ,but you also get something bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are resigned to something, you accept something unpleasant that can't be change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>He said that pepople are resigned to the privacy trade-off.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If you are resigned to something, you accept something unpleasant that can't be change.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, and a trade-off is a compromise. You accept something bad to also receive something good.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>so People accept that a smarts peaker gives them advantages even though there could be downsides.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, in the grand scheme of things, the data that these devices here probably not that significant considering all the data the company have about us already anyway.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">So can I have the answer to the quiz then? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earlier I asked by what percentage the number of smart speakers used in US households increase from December 2017 to December 2018? Was it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What did you say, Rob?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I said c) around 80%. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And you are right, the answer is about 80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From 66 million in December 2017 to 118 million in December 2018 and around 10 million people in the UK now use one too. I guess they are not worried about eavesdropping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nice slide into  the vocabulary, Dan.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If someone eavesdrops on you it means they secretly listen to your conversation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They could be eavesdropping on you through a bug which is a small electronic device used to secretly listen to conversation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, they may have bugged your most intimate or private and personal spaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next, we had circumvent, if you circumvent something,such as security, you cleverly bypass it or go around it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Then we had resigned, if you are resigned to something, it means you accept something unpleasant that can't be changed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And lastly, we had trade-off, a trade-off is a compromise, you get something good ,but you also get something bad.</t>
+    <t>The joy of free diving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you know about free driving?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free diving is a sport where people dive underwater as deep as they can without carrying air-tanks, so just by holding their breath.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're going to find out today a world record free diver. but first, a question and this is a physic one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On dry land - at see level, a pressure or weight of all the way above us is known as an atmosphere.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How far underwater do you have to go until the weight of water is equal in pressure to another atmosphere? Is it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A one meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 10 meters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 100 meters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think Georgina?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, water is much heavier than air but there is a lot of air above us many kilometers, so I don't think one meter of water is heavy enough. same for 10 meters so I think a hundred meters is equivalent of one atmosphere.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK we' ll find out if you are swimming comfortablly or completely out of your depth later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX hold the world record for the deepest free dive. In 2012, he reached a depth of 253 metres.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, he spoke on the BBC world service radio programme outlook about his experiences.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He spoke about how he trained himself to hold his breath for a long time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lungs are the organs in the body that hold the air when we breathe in. And He says that he trains himself not by starting with big breath but when his lungs are already empty. Why is that?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reason why I do the empty lungs is that the urge to breathe comes earlier and this is when the training starts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because when you hold your breath on full lungs, the urge to breathe comes like a few minutes in, but the time up to that point is no training at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only the time, you have the urge to breathe and fight against it that's the time you are actually training.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So why train with empty lungs?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because you have to practice no breathing when you need to breathe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you explain futher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Of course, normally, our breathing is automatic we don't have to think about it, if you hold your breath there is a point when your body tells you that it's time to breathe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And at that point most of us will take a breath, won't we?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly, our body and brain is telling us go on breathe, take a breath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The strong feeling to do something is called an urge. To hold your breath for a long time, you have to ignore that urge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have to fight against it. so to train to do that, it's a waste of time taking a big breath because holding your breath when you don't need to brethe isn't difficult.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have to practise fighting against that urge to breathe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitsch did a lot of free diving in lakes in his hoom country of Austria. Diving in lakes is very different from diving in the ocean. Here he is describing the experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the beginning it's very spooky, and the yes, it's not a pleasant feeling at all in the beginning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's something actually quite intimidating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But after a while you get used to it, and you learn to appreciate it actually, that it's so quite. Quiet and your deprived of all sensation except the cold, of course, and  so you  hear your own heart beat because there's absolutely no sound.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How does he describe the sensation?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's very cold, dark and quiet when diving deep in lakes and that first he says the experience is spooky.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This means it's a little scary and mysterious in the same way we might find a graveyard at night spooky. That kind of feeling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And he also says it's intimidating which is a feeling of being frightened by something stronger and more powerful than you are.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And you experience these feeling because you are  deprive of all sensations when you are deprived of something, it means you don't have it. It's taken away. And sensation are all the way we experience the world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So sound, sight and smell, diving in cold, dark, silent water you are deprived many of our usual sensations, that's spooky and intimidating.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rather him than me, I don't think I'd like that experience at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right before we review our vocabulary let's have the answer to the quiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How far underwater do you have to go until the weight of water is equal in pressure to another atmosphere? Georgina what did you say?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said 100 metres.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, that's actually the equivalent of 10 atmospheres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So the correct answer is 10 metres. Every 10 metres of depth in water is the equivalant to the weight and pressure of the air above us at sea level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a difference between fresh and salt water but it's not so much as to make your answer correct. Well done if you got that answer right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, I was clearly out of my depth with that question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The part of our body that holds our breath is our lungs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A very strong need or desire to do something like breath is an urge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Something spooky is a little scary and mysterious.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And it can also be intimidating which means it's overpower and frightening in a way that make you less confidennt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And to be deprived of sensations means to have certain feeling, like touch and hearing taken away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So Georgina, do you fency free diving?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, would I like to go hundreds of metres down in cold, dark and silent water withouth any breathing equiment. Let me think about that, I've thought about it. No thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not my cup of tea eighter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolution and anxiety</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3351,7 +3571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3363,6 +3583,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3662,10 +3883,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A412"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="123.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A467"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5602,37 +5848,37 @@
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="33">
       <c r="A395" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -5652,61 +5898,334 @@
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="33">
       <c r="A404" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="4"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="33">
+      <c r="A423" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="33">
+      <c r="A428" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="33">
+      <c r="A435" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="33">
+      <c r="A439" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="33">
+      <c r="A441" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="33">
+      <c r="A444" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="33">
+      <c r="A449" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="33">
+      <c r="A465" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5715,7 +6234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A427"/>
   <sheetViews>
@@ -7813,17 +8332,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Intensive listening.xlsx
+++ b/Intensive listening.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -3496,7 +3496,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Evolution and anxiety</t>
+    <t>Why take a gap year?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3883,10 +3883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3908,6 +3909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6236,6 +6238,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:A427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
